--- a/ControlBook Mensal/clientes/LOCALIZA.xlsx
+++ b/ControlBook Mensal/clientes/LOCALIZA.xlsx
@@ -16,9 +16,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -32,12 +31,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +63,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,1203 +575,1204 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="3" t="n">
         <v>202302000464</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR E RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 12:16</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>02/02/2023 12:16</t>
         </is>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="4" t="n">
         <v>44964.35763888889</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="4" t="n">
         <v>44964.35833333333</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="4" t="n">
         <v>44966.40833333333</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">LAURA ADRIANA - IBM </t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>REPARO DA TELEFONIA ACLDB</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>TELEFONE FIXO AGÊNCIA ACLDB LINHA 43 21010054 NÃO FUNCIONA. LINHAS:(43) 2101 - 0096                                            (43) 2101 - 0097                      (43) 2101 - 0052(43) 2101 - 0053(43) 2101 - 0054     HORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: GUSTAVO LOTT 43 996683519E-MAIL OU TEAMS DO CONTATO LOCAL: GUSTAVO.LOTT@LOCALIZA.COMPROTOCOLO INTERNO: INC1679905</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>ACLDB</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>CABEAMENTO</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>REALIZADA A REMOÇÃO E RECOLOCAÇÃO DO CABO DE REDE, APÓS ISSO RAMAL VOLTOU A PEGAR IP E REGISTROU</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>09:59:57</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>09:59:57</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="X2" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="2" t="n">
+      <c r="Y2" s="4" t="n">
         <v>4.846527777777778</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="n">
         <v>202302000490</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL MUDO</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 15:27</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 15:25</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 15:37</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>03/02/2023 15:42</t>
         </is>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="4" t="n">
         <v>44962.68263888889</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J3" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>REPARO DE LINHA  ACREZ</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE   BASE TELCO ! COLABORADORA REPORTA LIGAÇÕES MUDA NO RAMAL 2421088790 LINHAS:(24) 2108 - 8789 (24) 2108 - 8790  UNIDADE AFETADA: ACREZHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: STEFANIE  24 9 92312407E-MAIL OU TEAMS DO CONTATO LOCAL: STEFANIE.RIBEIRO@LOCALIZA.COMPROTOCOLO INTERNO: INC1681035</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="3" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="3" t="inlineStr">
         <is>
           <t>ACREZ</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" s="3" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>VERIFICADO COM CAMILA (ACREZ) QUE A UNIDADE TINHA FICADO SEM CONEXÃO COM A INTERNET, APÓS INTERNET SER RESTABELECIDA SEU RAMAL: 8790 VOLTOU AO NORMAL.</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S3" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="T3" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="U3" s="3" t="inlineStr">
         <is>
           <t>00:15:32</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="V3" s="3" t="inlineStr">
         <is>
           <t>00:15:32</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="X3" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Y3" s="3" t="inlineStr">
         <is>
           <t>00:12:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
         <v>202302000512</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 15:13</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 15:05</t>
         </is>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="4" t="n">
         <v>44965.66388888889</v>
       </c>
-      <c r="H4" s="2" t="n">
+      <c r="H4" s="4" t="n">
         <v>44965.66527777778</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="4" t="n">
         <v>44967.68055555555</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>REPARO DE LINHA  ACPPD</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE   BASE TELCO ! COLABORADORA REPORTA NÃO ESTAR CONSEGUINDO FAZER NEM RECEBER LIGAÇÃO, AO TENTAR LIGAR FICA MUDO E CAI E AO RECEBER FALA TELEFONE DESLIGADO OU FORA DA ÁREA DE COBERTURA. LINHA 1833110005 LINHAS:(18) 3311 - 0005                                                                (18) 3311 - 0006  UNIDADE AFETADA: ACREZHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: JAQUELINE (18) 3311 – 0006  E-MAIL OU TEAMS DO CONTATO LOCAL: JACQUELINE.PROENCA@LOCALIZA.COMPROTOCOLO INTERNO: INC1683390  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>ACPPD</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="3" t="inlineStr">
         <is>
           <t>LIGADOS NOS RAMAIS 551833110005 E 551833110006 ESTÃO REGISTRADOS E FALADO COM LETICIA E VALIDADO QUE OS EQUIPAMENTOS VOLTARAM A FUNCIONAR APÓS A CONFIGURAÇÃO FEITA PELA EQUIPE DE INFRA LOCAL</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="T4" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="U4" s="3" t="inlineStr">
         <is>
           <t>08:24:06</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>08:24:06</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="W4" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="X4" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="2" t="n">
+      <c r="Y4" s="4" t="n">
         <v>2.035416666666667</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="3" t="n">
         <v>202302000513</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 15:16</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>06/02/2023 15:11</t>
         </is>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="4" t="n">
         <v>44963.63680555556</v>
       </c>
-      <c r="H5" s="2" t="n">
+      <c r="H5" s="4" t="n">
         <v>44964.43611111111</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="4" t="n">
         <v>44966.45208333333</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>REPARO DE LINHA  AAPOA</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE   BASE TELCO ! COLABORADORA REPORTA NÃO ESTAR CONSEGUINDO FAZER NEM RECEBER LIGAÇÃO LINHA (051)3313-1140 LINHAS:(51) 3313 – 1140( 51) 3313 - 1141                      (51) 3313 - 1142                   (51) 3313 - 1143                       (51) 3313 - 1144                      (51) 3313 - 1145   UNIDADE AFETADA: AAPOAHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: ANA PAULA  51980599634E-MAIL OU TEAMS DO CONTATO LOCAL: ANA.CONTI@LOCALIZA.COMPROTOCOLO INTERNO: INC1683646  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>AAPOA</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="R5" s="3" t="inlineStr">
         <is>
           <t>CHAMADO PODE SER ENCERRADO, ESTA DUPLICADO COM O TICKET 202301000438</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T5" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U5" s="3" t="inlineStr">
         <is>
           <t>08:20:49</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>08:20:49</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="W5" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="X5" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y5" s="3" t="inlineStr">
         <is>
           <t>00:06:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="3" t="n">
         <v>202302000596</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR E RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 15:32</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>10/02/2023 14:48</t>
         </is>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="4" t="n">
         <v>44971.46527777778</v>
       </c>
-      <c r="H6" s="2" t="n">
+      <c r="H6" s="4" t="n">
         <v>44971.46666666667</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="4" t="n">
         <v>44973.50972222222</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="K6" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>VERIFICAR TELEFONIA DE AABVT</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve"> BOA TARDE , BASE TELCO! RAMAL NÃO ESTA FAZENDO OU RECEBENDO CHAMADAS.  UNIDADE AFETADA: AABVTNÚMERO DO RAMAL AFETADO: 0997HORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: DIOGENES TADIC 95991686149E-MAIL OU TEAMS DO CONTATO LOCAL: DIOGENES.TADIC@LOCALIZA.COMPROTOCOLO INTERNO: INC1688563 </t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="N6" s="3" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>AABVT</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="P6" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" s="3" t="inlineStr">
         <is>
           <t>EQUIPAMENTO TRAVADO</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="R6" s="3" t="inlineStr">
         <is>
           <t>EM CONTATO COM DIORGINES FOI VERIFICADO QUE O RAMAL ESTAVA TRAVADO, APÓS REINICIAR MANUTALMENTE O RAMAL VOLTOU A REGISTRA</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="T6" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="U6" s="3" t="inlineStr">
         <is>
           <t>06:15:25</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="V6" s="3" t="inlineStr">
         <is>
           <t>06:15:25</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="W6" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="X6" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" s="2" t="n">
+      <c r="Y6" s="4" t="n">
         <v>3.848611111111111</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="5" t="n">
         <v>202302000669</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>16/02/2023 13:50</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>16/02/2023 12:37</t>
         </is>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="6" t="n">
         <v>44980.83333333334</v>
       </c>
-      <c r="H7" s="2" t="n">
+      <c r="H7" s="6" t="n">
         <v>44984.40625</v>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" s="5" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K7" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">REPARO LINHA LOCALIZA - ACPOA </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE , BASE TELCO! FAVOR VERIFICAR LINHA (51) 3313 – 1149 QUE NÃO FAZ OU RECEBE CHAMADAS  UNIDADE AFETADA: ACPOAHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: EMELIN KIMBERLEY 51998537467E-MAIL OU TEAMS DO CONTATO LOCAL: EMELIN.OLIZ@LOCALIZA.COMPROTOCOLO INTERNO: INC1694391 </t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="N7" s="5" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="5" t="inlineStr">
         <is>
           <t>ACPOA</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P7" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" s="5" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R7" s="5" t="inlineStr">
         <is>
           <t>REALIZADA LIBERAÇÃO DO MAC POR PARTE DA LOCALIZA</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="T7" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U7" s="5" t="inlineStr">
         <is>
           <t>05:32:29</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="V7" s="5" t="inlineStr">
         <is>
           <t>05:32:29</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="W7" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="X7" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" s="2" t="n">
+      <c r="Y7" s="4" t="n">
         <v>7.307638888888889</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="3" t="n">
         <v>202302000673</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 15:45</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 15:36</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 17:56</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>16/02/2023 18:29</t>
         </is>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="4" t="n">
         <v>44975.83402777778</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K8" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>REPARO LINHA LOCALIZA - ACSST</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="3" t="inlineStr">
         <is>
           <t>BOA TARDE , BASE TELCO! FAVOR VERIFICAR AS LINHAS QUE NÃO ESTÃO RECEBENDO OU REALIZANDO CHAMADAS , LOCAL HOUVE QUEDA DE LINK POREM APÓS RESTABELECER TELEFONES NÃO NORMALIZARAM.  (12) 3202 - 7555(12) 3202 - 7556  UNIDADE AFETADA: ACSSTHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: NILIA FREITAS 12991135764E-MAIL OU TEAMS DO CONTATO LOCAL: NILIA.SANTANA@LOCALIZA.COMPROTOCOLO INTERNO: INC1694140</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="N8" s="3" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="O8" s="3" t="inlineStr">
         <is>
           <t>ACSST</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="P8" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" s="3" t="inlineStr">
         <is>
           <t>EQUIPAMENTO TRAVADO</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="R8" s="3" t="inlineStr">
         <is>
           <t>, A USUÁRIA (NILIA-LOCALIZA-ACSST) VALIDOU QUE O TELEFONE VOLTOU A FUNCIONAR, APÓS DESLIGAR E LIGAR APARELHO DA TOMADA</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T8" s="3" t="inlineStr">
         <is>
           <t>00:57:00</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U8" s="3" t="inlineStr">
         <is>
           <t>01:47:20</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="3" t="inlineStr">
         <is>
           <t>02:44:20</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="W8" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="X8" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y8" s="3" t="inlineStr">
         <is>
           <t>02:20:00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="3" t="n">
         <v>202302000695</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR E RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>20/02/2023 08:53</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>20/02/2023 08:46</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>20/02/2023 09:08</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>20/02/2023 09:08</t>
         </is>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="4" t="n">
         <v>44979.49236111111</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="3" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>VERIFICAR  TELEFONIA DE ACPUN</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>BOM DIA , BASE TELCO! FAVOR REALIZAR REPARO NOS RAMAIS 42 2102 3063 E 42 2102 3064, APRESENTA O ERRO " NESSUS".  UNIDADE AFETADA: ACPUNHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: MELISSA 42-988242292E-MAIL OU TEAMS DO CONTATO LOCAL: MELISSA.REALI@LOCALIZA.COMPROTOCOLO INTERNO: INC1697670</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>ACPUN</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="P9" s="3" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="3" t="inlineStr">
         <is>
           <t>EQUIPAMENTO TRAVADO</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R9" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">EM CONTATO COM MELISSA FUI INFORMADO QUE TINHA FALTADO INTERNET DO LOCAL, APÓS REINICIO DO APARELHO O RAMAL VOLTOU A REGISTRAR </t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" s="3" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="T9" s="3" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="U9" s="3" t="inlineStr">
         <is>
           <t>00:15:01</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>00:15:01</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="W9" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
+      <c r="X9" s="3" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
+      <c r="Y9" s="3" t="inlineStr">
         <is>
           <t>00:22:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="5" t="n">
         <v>202302000718</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>24/02/2023 13:22</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>24/02/2023 12:38</t>
         </is>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="6" t="n">
         <v>44981.68541666667</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="6" t="n">
         <v>44984.41736111111</v>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="5" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="5" t="inlineStr">
         <is>
           <t>REPARO DE LINHA DE ACVRE</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="5" t="inlineStr">
         <is>
           <t>BOA TARDE  BASE TELCO ! GENTILEZA VERIFICAR A LINHA 24-2108 8795  DE ACVRE NÃO ESTÁ FAZENDO EM NEM RECEBENDO CHAMADAS  UNIDADE AFETADA: ACVREHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: JAMILSON 24-2108 8794  E-MAIL OU TEAMS DO CONTATO LOCAL: JAMILSON.GUIMARAES@LOCALIZA.COMPROTOCOLO INTERNO: INC1701285  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="5" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="5" t="inlineStr">
         <is>
           <t>ACVRE</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="P10" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R10" s="5" t="inlineStr">
         <is>
           <t>RAMAL VOLTOU A REGISTRAR SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="T10" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="U10" s="5" t="inlineStr">
         <is>
           <t>06:00:43</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" s="5" t="inlineStr">
         <is>
           <t>06:00:43</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="W10" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="X10" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
+      <c r="Y10" s="3" t="inlineStr">
         <is>
           <t>03:49:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="5" t="n">
         <v>202302000720</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>24/02/2023 13:42</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>24/02/2023 12:44</t>
         </is>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="G11" s="6" t="n">
         <v>44984.41527777778</v>
       </c>
-      <c r="H11" s="2" t="n">
+      <c r="H11" s="6" t="n">
         <v>44984.75625</v>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="5" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="5" t="inlineStr">
         <is>
           <t>REPARO LINHA LOCALIZA - ACSST</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="5" t="inlineStr">
         <is>
           <t>BOA TARDE , BASE TELCO! FAVOR VERIFICAR SOLICITAÇÃO “DESDE DO DIA 23/02/2023 NÃO CONSIGO FAZER E NEM RECEBER LIGAÇÃO, JÁ DESCONECTEI TODOS OS CABOS E NÃO VOLTOU AO NORMAL.”  (12) 3202 - 7555(12) 3202 - 7556  UNIDADE AFETADA: ACSSTHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: SHEILA MIKAELA  12982272380E-MAIL OU TEAMS DO CONTATO LOCAL: SHEILA.MIKAELA@LOCALIZA.COMPROTOCOLO INTERNO: INC1701314  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="5" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="5" t="inlineStr">
         <is>
           <t>ACSST</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="P11" s="5" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" s="5" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R11" s="5" t="inlineStr">
         <is>
           <t>CONFORME INFORMAÇÃO DA CLIENTE POR E-MAIL, O SERVIÇO FOI NORMALIZADO HOJE SER INTERVENÇÃO TÉCNICA DA BASE</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="5" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T11" s="5" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U11" s="5" t="inlineStr">
         <is>
           <t>05:40:19</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" s="5" t="inlineStr">
         <is>
           <t>05:40:19</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W11" s="5" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X11" s="3" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="2" t="n">
+      <c r="Y11" s="4" t="n">
         <v>2.884722222222222</v>
       </c>
     </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ControlBook Mensal/clientes/LOCALIZA.xlsx
+++ b/ControlBook Mensal/clientes/LOCALIZA.xlsx
@@ -63,16 +63,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -447,1328 +458,1328 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" s="3" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="3" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="3" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" s="3" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" s="3" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" s="3" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="4" t="n">
         <v>202302000464</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR E RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 12:16</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="F2" s="4" t="inlineStr">
         <is>
           <t>02/02/2023 12:16</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>44964.35763888889</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="5" t="n">
         <v>44964.35833333333</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="5" t="n">
         <v>44966.40833333333</v>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">LAURA ADRIANA - IBM </t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="K2" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="L2" s="4" t="inlineStr">
         <is>
           <t>REPARO DA TELEFONIA ACLDB</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="M2" s="4" t="inlineStr">
         <is>
           <t>TELEFONE FIXO AGÊNCIA ACLDB LINHA 43 21010054 NÃO FUNCIONA. LINHAS:(43) 2101 - 0096                                            (43) 2101 - 0097                      (43) 2101 - 0052(43) 2101 - 0053(43) 2101 - 0054     HORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: GUSTAVO LOTT 43 996683519E-MAIL OU TEAMS DO CONTATO LOCAL: GUSTAVO.LOTT@LOCALIZA.COMPROTOCOLO INTERNO: INC1679905</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="N2" s="4" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="O2" s="4" t="inlineStr">
         <is>
           <t>ACLDB</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="P2" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="Q2" s="4" t="inlineStr">
         <is>
           <t>CABEAMENTO</t>
         </is>
       </c>
-      <c r="R2" s="3" t="inlineStr">
+      <c r="R2" s="4" t="inlineStr">
         <is>
           <t>REALIZADA A REMOÇÃO E RECOLOCAÇÃO DO CABO DE REDE, APÓS ISSO RAMAL VOLTOU A PEGAR IP E REGISTROU</t>
         </is>
       </c>
-      <c r="S2" s="3" t="inlineStr">
+      <c r="S2" s="4" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="3" t="inlineStr">
+      <c r="T2" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="3" t="inlineStr">
+      <c r="U2" s="4" t="inlineStr">
         <is>
           <t>09:59:57</t>
         </is>
       </c>
-      <c r="V2" s="3" t="inlineStr">
+      <c r="V2" s="4" t="inlineStr">
         <is>
           <t>09:59:57</t>
         </is>
       </c>
-      <c r="W2" s="3" t="inlineStr">
+      <c r="W2" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="3" t="inlineStr">
+      <c r="X2" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="4" t="n">
+      <c r="Y2" s="5" t="n">
         <v>4.846527777777778</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="4" t="n">
         <v>202302000490</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL MUDO</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 15:27</t>
         </is>
       </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="F3" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 15:25</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 15:37</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>03/02/2023 15:42</t>
         </is>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="5" t="n">
         <v>44962.68263888889</v>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="J3" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="L3" s="4" t="inlineStr">
         <is>
           <t>REPARO DE LINHA  ACREZ</t>
         </is>
       </c>
-      <c r="M3" s="3" t="inlineStr">
+      <c r="M3" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE   BASE TELCO ! COLABORADORA REPORTA LIGAÇÕES MUDA NO RAMAL 2421088790 LINHAS:(24) 2108 - 8789 (24) 2108 - 8790  UNIDADE AFETADA: ACREZHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: STEFANIE  24 9 92312407E-MAIL OU TEAMS DO CONTATO LOCAL: STEFANIE.RIBEIRO@LOCALIZA.COMPROTOCOLO INTERNO: INC1681035</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="4" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O3" s="3" t="inlineStr">
+      <c r="O3" s="4" t="inlineStr">
         <is>
           <t>ACREZ</t>
         </is>
       </c>
-      <c r="P3" s="3" t="inlineStr">
+      <c r="P3" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="3" t="inlineStr">
+      <c r="Q3" s="4" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R3" s="3" t="inlineStr">
+      <c r="R3" s="4" t="inlineStr">
         <is>
           <t>VERIFICADO COM CAMILA (ACREZ) QUE A UNIDADE TINHA FICADO SEM CONEXÃO COM A INTERNET, APÓS INTERNET SER RESTABELECIDA SEU RAMAL: 8790 VOLTOU AO NORMAL.</t>
         </is>
       </c>
-      <c r="S3" s="3" t="inlineStr">
+      <c r="S3" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="3" t="inlineStr">
+      <c r="T3" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="3" t="inlineStr">
+      <c r="U3" s="4" t="inlineStr">
         <is>
           <t>00:15:32</t>
         </is>
       </c>
-      <c r="V3" s="3" t="inlineStr">
+      <c r="V3" s="4" t="inlineStr">
         <is>
           <t>00:15:32</t>
         </is>
       </c>
-      <c r="W3" s="3" t="inlineStr">
+      <c r="W3" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X3" s="3" t="inlineStr">
+      <c r="X3" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y3" s="3" t="inlineStr">
+      <c r="Y3" s="4" t="inlineStr">
         <is>
           <t>00:12:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="4" t="n">
         <v>202302000512</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 15:13</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 15:05</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>44965.66388888889</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="5" t="n">
         <v>44965.66527777778</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="5" t="n">
         <v>44967.68055555555</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="K4" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="L4" s="4" t="inlineStr">
         <is>
           <t>REPARO DE LINHA  ACPPD</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="M4" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE   BASE TELCO ! COLABORADORA REPORTA NÃO ESTAR CONSEGUINDO FAZER NEM RECEBER LIGAÇÃO, AO TENTAR LIGAR FICA MUDO E CAI E AO RECEBER FALA TELEFONE DESLIGADO OU FORA DA ÁREA DE COBERTURA. LINHA 1833110005 LINHAS:(18) 3311 - 0005                                                                (18) 3311 - 0006  UNIDADE AFETADA: ACREZHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: JAQUELINE (18) 3311 – 0006  E-MAIL OU TEAMS DO CONTATO LOCAL: JACQUELINE.PROENCA@LOCALIZA.COMPROTOCOLO INTERNO: INC1683390  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="N4" s="4" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="O4" s="4" t="inlineStr">
         <is>
           <t>ACPPD</t>
         </is>
       </c>
-      <c r="P4" s="3" t="inlineStr">
+      <c r="P4" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="3" t="inlineStr">
+      <c r="Q4" s="4" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R4" s="3" t="inlineStr">
+      <c r="R4" s="4" t="inlineStr">
         <is>
           <t>LIGADOS NOS RAMAIS 551833110005 E 551833110006 ESTÃO REGISTRADOS E FALADO COM LETICIA E VALIDADO QUE OS EQUIPAMENTOS VOLTARAM A FUNCIONAR APÓS A CONFIGURAÇÃO FEITA PELA EQUIPE DE INFRA LOCAL</t>
         </is>
       </c>
-      <c r="S4" s="3" t="inlineStr">
+      <c r="S4" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="3" t="inlineStr">
+      <c r="T4" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="3" t="inlineStr">
+      <c r="U4" s="4" t="inlineStr">
         <is>
           <t>08:24:06</t>
         </is>
       </c>
-      <c r="V4" s="3" t="inlineStr">
+      <c r="V4" s="4" t="inlineStr">
         <is>
           <t>08:24:06</t>
         </is>
       </c>
-      <c r="W4" s="3" t="inlineStr">
+      <c r="W4" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X4" s="3" t="inlineStr">
+      <c r="X4" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="4" t="n">
+      <c r="Y4" s="5" t="n">
         <v>2.035416666666667</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="4" t="n">
         <v>202302000513</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 15:16</t>
         </is>
       </c>
-      <c r="F5" s="3" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>06/02/2023 15:11</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>44963.63680555556</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="5" t="n">
         <v>44964.43611111111</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="5" t="n">
         <v>44966.45208333333</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
+      <c r="K5" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="L5" s="4" t="inlineStr">
         <is>
           <t>REPARO DE LINHA  AAPOA</t>
         </is>
       </c>
-      <c r="M5" s="3" t="inlineStr">
+      <c r="M5" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE   BASE TELCO ! COLABORADORA REPORTA NÃO ESTAR CONSEGUINDO FAZER NEM RECEBER LIGAÇÃO LINHA (051)3313-1140 LINHAS:(51) 3313 – 1140( 51) 3313 - 1141                      (51) 3313 - 1142                   (51) 3313 - 1143                       (51) 3313 - 1144                      (51) 3313 - 1145   UNIDADE AFETADA: AAPOAHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: ANA PAULA  51980599634E-MAIL OU TEAMS DO CONTATO LOCAL: ANA.CONTI@LOCALIZA.COMPROTOCOLO INTERNO: INC1683646  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N5" s="3" t="inlineStr">
+      <c r="N5" s="4" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O5" s="3" t="inlineStr">
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>AAPOA</t>
         </is>
       </c>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="R5" s="3" t="inlineStr">
+      <c r="R5" s="4" t="inlineStr">
         <is>
           <t>CHAMADO PODE SER ENCERRADO, ESTA DUPLICADO COM O TICKET 202301000438</t>
         </is>
       </c>
-      <c r="S5" s="3" t="inlineStr">
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="T5" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="3" t="inlineStr">
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>08:20:49</t>
         </is>
       </c>
-      <c r="V5" s="3" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>08:20:49</t>
         </is>
       </c>
-      <c r="W5" s="3" t="inlineStr">
+      <c r="W5" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X5" s="3" t="inlineStr">
+      <c r="X5" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="3" t="inlineStr">
+      <c r="Y5" s="4" t="inlineStr">
         <is>
           <t>00:06:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="4" t="n">
         <v>202302000596</v>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR E RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 15:32</t>
         </is>
       </c>
-      <c r="F6" s="3" t="inlineStr">
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>10/02/2023 14:48</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>44971.46527777778</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="5" t="n">
         <v>44971.46666666667</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="5" t="n">
         <v>44973.50972222222</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="K6" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="L6" s="4" t="inlineStr">
         <is>
           <t>VERIFICAR TELEFONIA DE AABVT</t>
         </is>
       </c>
-      <c r="M6" s="3" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> BOA TARDE , BASE TELCO! RAMAL NÃO ESTA FAZENDO OU RECEBENDO CHAMADAS.  UNIDADE AFETADA: AABVTNÚMERO DO RAMAL AFETADO: 0997HORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: DIOGENES TADIC 95991686149E-MAIL OU TEAMS DO CONTATO LOCAL: DIOGENES.TADIC@LOCALIZA.COMPROTOCOLO INTERNO: INC1688563 </t>
         </is>
       </c>
-      <c r="N6" s="3" t="inlineStr">
+      <c r="N6" s="4" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O6" s="3" t="inlineStr">
+      <c r="O6" s="4" t="inlineStr">
         <is>
           <t>AABVT</t>
         </is>
       </c>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
         <is>
           <t>EQUIPAMENTO TRAVADO</t>
         </is>
       </c>
-      <c r="R6" s="3" t="inlineStr">
+      <c r="R6" s="4" t="inlineStr">
         <is>
           <t>EM CONTATO COM DIORGINES FOI VERIFICADO QUE O RAMAL ESTAVA TRAVADO, APÓS REINICIAR MANUTALMENTE O RAMAL VOLTOU A REGISTRA</t>
         </is>
       </c>
-      <c r="S6" s="3" t="inlineStr">
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="T6" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="3" t="inlineStr">
+      <c r="U6" s="4" t="inlineStr">
         <is>
           <t>06:15:25</t>
         </is>
       </c>
-      <c r="V6" s="3" t="inlineStr">
+      <c r="V6" s="4" t="inlineStr">
         <is>
           <t>06:15:25</t>
         </is>
       </c>
-      <c r="W6" s="3" t="inlineStr">
+      <c r="W6" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X6" s="3" t="inlineStr">
+      <c r="X6" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" s="4" t="n">
+      <c r="Y6" s="5" t="n">
         <v>3.848611111111111</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="6" t="n">
         <v>202302000669</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 13:50</t>
         </is>
       </c>
-      <c r="F7" s="5" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 12:37</t>
         </is>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="7" t="n">
         <v>44980.83333333334</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="7" t="n">
         <v>44984.40625</v>
       </c>
-      <c r="I7" s="5" t="inlineStr">
+      <c r="I7" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J7" s="5" t="inlineStr">
+      <c r="J7" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K7" s="5" t="inlineStr">
+      <c r="K7" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="5" t="inlineStr">
+      <c r="L7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">REPARO LINHA LOCALIZA - ACPOA </t>
         </is>
       </c>
-      <c r="M7" s="5" t="inlineStr">
+      <c r="M7" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE , BASE TELCO! FAVOR VERIFICAR LINHA (51) 3313 – 1149 QUE NÃO FAZ OU RECEBE CHAMADAS  UNIDADE AFETADA: ACPOAHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: EMELIN KIMBERLEY 51998537467E-MAIL OU TEAMS DO CONTATO LOCAL: EMELIN.OLIZ@LOCALIZA.COMPROTOCOLO INTERNO: INC1694391 </t>
         </is>
       </c>
-      <c r="N7" s="5" t="inlineStr">
+      <c r="N7" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="O7" s="6" t="inlineStr">
         <is>
           <t>ACPOA</t>
         </is>
       </c>
-      <c r="P7" s="5" t="inlineStr">
+      <c r="P7" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="5" t="inlineStr">
+      <c r="Q7" s="6" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R7" s="5" t="inlineStr">
+      <c r="R7" s="6" t="inlineStr">
         <is>
           <t>REALIZADA LIBERAÇÃO DO MAC POR PARTE DA LOCALIZA</t>
         </is>
       </c>
-      <c r="S7" s="5" t="inlineStr">
+      <c r="S7" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="5" t="inlineStr">
+      <c r="T7" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="5" t="inlineStr">
+      <c r="U7" s="6" t="inlineStr">
         <is>
           <t>05:32:29</t>
         </is>
       </c>
-      <c r="V7" s="5" t="inlineStr">
+      <c r="V7" s="6" t="inlineStr">
         <is>
           <t>05:32:29</t>
         </is>
       </c>
-      <c r="W7" s="5" t="inlineStr">
+      <c r="W7" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X7" s="3" t="inlineStr">
+      <c r="X7" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" s="4" t="n">
+      <c r="Y7" s="5" t="n">
         <v>7.307638888888889</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>202302000673</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 15:45</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 15:36</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 17:56</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>16/02/2023 18:29</t>
         </is>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="5" t="n">
         <v>44975.83402777778</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="K8" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="L8" s="4" t="inlineStr">
         <is>
           <t>REPARO LINHA LOCALIZA - ACSST</t>
         </is>
       </c>
-      <c r="M8" s="3" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>BOA TARDE , BASE TELCO! FAVOR VERIFICAR AS LINHAS QUE NÃO ESTÃO RECEBENDO OU REALIZANDO CHAMADAS , LOCAL HOUVE QUEDA DE LINK POREM APÓS RESTABELECER TELEFONES NÃO NORMALIZARAM.  (12) 3202 - 7555(12) 3202 - 7556  UNIDADE AFETADA: ACSSTHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: NILIA FREITAS 12991135764E-MAIL OU TEAMS DO CONTATO LOCAL: NILIA.SANTANA@LOCALIZA.COMPROTOCOLO INTERNO: INC1694140</t>
         </is>
       </c>
-      <c r="N8" s="3" t="inlineStr">
+      <c r="N8" s="4" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O8" s="3" t="inlineStr">
+      <c r="O8" s="4" t="inlineStr">
         <is>
           <t>ACSST</t>
         </is>
       </c>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
         <is>
           <t>EQUIPAMENTO TRAVADO</t>
         </is>
       </c>
-      <c r="R8" s="3" t="inlineStr">
+      <c r="R8" s="4" t="inlineStr">
         <is>
           <t>, A USUÁRIA (NILIA-LOCALIZA-ACSST) VALIDOU QUE O TELEFONE VOLTOU A FUNCIONAR, APÓS DESLIGAR E LIGAR APARELHO DA TOMADA</t>
         </is>
       </c>
-      <c r="S8" s="3" t="inlineStr">
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="T8" s="4" t="inlineStr">
         <is>
           <t>00:57:00</t>
         </is>
       </c>
-      <c r="U8" s="3" t="inlineStr">
+      <c r="U8" s="4" t="inlineStr">
         <is>
           <t>01:47:20</t>
         </is>
       </c>
-      <c r="V8" s="3" t="inlineStr">
+      <c r="V8" s="4" t="inlineStr">
         <is>
           <t>02:44:20</t>
         </is>
       </c>
-      <c r="W8" s="3" t="inlineStr">
+      <c r="W8" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X8" s="3" t="inlineStr">
+      <c r="X8" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" s="3" t="inlineStr">
+      <c r="Y8" s="4" t="inlineStr">
         <is>
           <t>02:20:00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="4" t="n">
         <v>202302000695</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR E RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="E9" s="4" t="inlineStr">
         <is>
           <t>20/02/2023 08:53</t>
         </is>
       </c>
-      <c r="F9" s="3" t="inlineStr">
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>20/02/2023 08:46</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>20/02/2023 09:08</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>20/02/2023 09:08</t>
         </is>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="5" t="n">
         <v>44979.49236111111</v>
       </c>
-      <c r="J9" s="3" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
+      <c r="K9" s="4" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L9" s="3" t="inlineStr">
+      <c r="L9" s="4" t="inlineStr">
         <is>
           <t>VERIFICAR  TELEFONIA DE ACPUN</t>
         </is>
       </c>
-      <c r="M9" s="3" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>BOM DIA , BASE TELCO! FAVOR REALIZAR REPARO NOS RAMAIS 42 2102 3063 E 42 2102 3064, APRESENTA O ERRO " NESSUS".  UNIDADE AFETADA: ACPUNHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: MELISSA 42-988242292E-MAIL OU TEAMS DO CONTATO LOCAL: MELISSA.REALI@LOCALIZA.COMPROTOCOLO INTERNO: INC1697670</t>
         </is>
       </c>
-      <c r="N9" s="3" t="inlineStr">
+      <c r="N9" s="4" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O9" s="3" t="inlineStr">
+      <c r="O9" s="4" t="inlineStr">
         <is>
           <t>ACPUN</t>
         </is>
       </c>
-      <c r="P9" s="3" t="inlineStr">
+      <c r="P9" s="4" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q9" s="3" t="inlineStr">
+      <c r="Q9" s="4" t="inlineStr">
         <is>
           <t>EQUIPAMENTO TRAVADO</t>
         </is>
       </c>
-      <c r="R9" s="3" t="inlineStr">
+      <c r="R9" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">EM CONTATO COM MELISSA FUI INFORMADO QUE TINHA FALTADO INTERNET DO LOCAL, APÓS REINICIO DO APARELHO O RAMAL VOLTOU A REGISTRAR </t>
         </is>
       </c>
-      <c r="S9" s="3" t="inlineStr">
+      <c r="S9" s="4" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="3" t="inlineStr">
+      <c r="T9" s="4" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="3" t="inlineStr">
+      <c r="U9" s="4" t="inlineStr">
         <is>
           <t>00:15:01</t>
         </is>
       </c>
-      <c r="V9" s="3" t="inlineStr">
+      <c r="V9" s="4" t="inlineStr">
         <is>
           <t>00:15:01</t>
         </is>
       </c>
-      <c r="W9" s="3" t="inlineStr">
+      <c r="W9" s="4" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X9" s="3" t="inlineStr">
+      <c r="X9" s="4" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y9" s="3" t="inlineStr">
+      <c r="Y9" s="4" t="inlineStr">
         <is>
           <t>00:22:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="6" t="n">
         <v>202302000718</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
+      <c r="E10" s="6" t="inlineStr">
         <is>
           <t>24/02/2023 13:22</t>
         </is>
       </c>
-      <c r="F10" s="5" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>24/02/2023 12:38</t>
         </is>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="7" t="n">
         <v>44981.68541666667</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="7" t="n">
         <v>44984.41736111111</v>
       </c>
-      <c r="I10" s="5" t="inlineStr">
+      <c r="I10" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J10" s="5" t="inlineStr">
+      <c r="J10" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K10" s="5" t="inlineStr">
+      <c r="K10" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="5" t="inlineStr">
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t>REPARO DE LINHA DE ACVRE</t>
         </is>
       </c>
-      <c r="M10" s="5" t="inlineStr">
+      <c r="M10" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE  BASE TELCO ! GENTILEZA VERIFICAR A LINHA 24-2108 8795  DE ACVRE NÃO ESTÁ FAZENDO EM NEM RECEBENDO CHAMADAS  UNIDADE AFETADA: ACVREHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: JAMILSON 24-2108 8794  E-MAIL OU TEAMS DO CONTATO LOCAL: JAMILSON.GUIMARAES@LOCALIZA.COMPROTOCOLO INTERNO: INC1701285  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N10" s="5" t="inlineStr">
+      <c r="N10" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O10" s="5" t="inlineStr">
+      <c r="O10" s="6" t="inlineStr">
         <is>
           <t>ACVRE</t>
         </is>
       </c>
-      <c r="P10" s="5" t="inlineStr">
+      <c r="P10" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="5" t="inlineStr">
+      <c r="Q10" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R10" s="5" t="inlineStr">
+      <c r="R10" s="6" t="inlineStr">
         <is>
           <t>RAMAL VOLTOU A REGISTRAR SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S10" s="5" t="inlineStr">
+      <c r="S10" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="5" t="inlineStr">
+      <c r="T10" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" s="5" t="inlineStr">
+      <c r="U10" s="6" t="inlineStr">
         <is>
           <t>06:00:43</t>
         </is>
       </c>
-      <c r="V10" s="5" t="inlineStr">
+      <c r="V10" s="6" t="inlineStr">
         <is>
           <t>06:00:43</t>
         </is>
       </c>
-      <c r="W10" s="5" t="inlineStr">
+      <c r="W10" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X10" s="3" t="inlineStr">
+      <c r="X10" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y10" s="3" t="inlineStr">
+      <c r="Y10" s="4" t="inlineStr">
         <is>
           <t>03:49:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="6" t="n">
         <v>202302000720</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="6" t="inlineStr">
         <is>
           <t>24/02/2023 13:42</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>24/02/2023 12:44</t>
         </is>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="7" t="n">
         <v>44984.41527777778</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="7" t="n">
         <v>44984.75625</v>
       </c>
-      <c r="I11" s="5" t="inlineStr">
+      <c r="I11" s="6" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" s="5" t="inlineStr">
+      <c r="J11" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K11" s="5" t="inlineStr">
+      <c r="K11" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" s="5" t="inlineStr">
+      <c r="L11" s="6" t="inlineStr">
         <is>
           <t>REPARO LINHA LOCALIZA - ACSST</t>
         </is>
       </c>
-      <c r="M11" s="5" t="inlineStr">
+      <c r="M11" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE , BASE TELCO! FAVOR VERIFICAR SOLICITAÇÃO “DESDE DO DIA 23/02/2023 NÃO CONSIGO FAZER E NEM RECEBER LIGAÇÃO, JÁ DESCONECTEI TODOS OS CABOS E NÃO VOLTOU AO NORMAL.”  (12) 3202 - 7555(12) 3202 - 7556  UNIDADE AFETADA: ACSSTHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: SHEILA MIKAELA  12982272380E-MAIL OU TEAMS DO CONTATO LOCAL: SHEILA.MIKAELA@LOCALIZA.COMPROTOCOLO INTERNO: INC1701314  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N11" s="5" t="inlineStr">
+      <c r="N11" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O11" s="5" t="inlineStr">
+      <c r="O11" s="6" t="inlineStr">
         <is>
           <t>ACSST</t>
         </is>
       </c>
-      <c r="P11" s="5" t="inlineStr">
+      <c r="P11" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" s="5" t="inlineStr">
+      <c r="Q11" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R11" s="5" t="inlineStr">
+      <c r="R11" s="6" t="inlineStr">
         <is>
           <t>CONFORME INFORMAÇÃO DA CLIENTE POR E-MAIL, O SERVIÇO FOI NORMALIZADO HOJE SER INTERVENÇÃO TÉCNICA DA BASE</t>
         </is>
       </c>
-      <c r="S11" s="5" t="inlineStr">
+      <c r="S11" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="5" t="inlineStr">
+      <c r="T11" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="5" t="inlineStr">
+      <c r="U11" s="6" t="inlineStr">
         <is>
           <t>05:40:19</t>
         </is>
       </c>
-      <c r="V11" s="5" t="inlineStr">
+      <c r="V11" s="6" t="inlineStr">
         <is>
           <t>05:40:19</t>
         </is>
       </c>
-      <c r="W11" s="5" t="inlineStr">
+      <c r="W11" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X11" s="3" t="inlineStr">
+      <c r="X11" s="4" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="4" t="n">
+      <c r="Y11" s="5" t="n">
         <v>2.884722222222222</v>
       </c>
     </row>

--- a/ControlBook Mensal/clientes/LOCALIZA.xlsx
+++ b/ControlBook Mensal/clientes/LOCALIZA.xlsx
@@ -63,19 +63,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -463,1323 +472,1323 @@
           <t>NÚMERO</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>CATEGORIA</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>ORIGEM DE ABERTURA</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>ABERTO EM</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>HORÁRIO DO INCIDENTE</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>DATA DE NORMALIZAÇÃO</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>RESOLVIDO EM</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">FECHADO EM </t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <t>CRIADO POR</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>SERVIÇO (1º NÍVEL)</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>ASSUNTO</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>DESCRIÇÃO</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>CLIENTE (ORGANIZAÇÃO)</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>RESPONSÁVEL: EQUIPE</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">CAUSA RAIZ </t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>RESOLUÇÃO</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>INDICADOR DO SLA DE SOLUÇÃO</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>TEMPO PARADO (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>TEMPO DE VIDA (DESCONTANDO PARADO - HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TEMPO DE VIDA (HORAS CORRIDAS)</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>TICKET EXTERNO</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="4" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="4" t="inlineStr">
         <is>
           <t>INDISPONIBILIDADE</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>202302000464</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR E RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 12:16</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>02/02/2023 12:16</t>
         </is>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="7" t="n">
         <v>44964.35763888889</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="7" t="n">
         <v>44964.35833333333</v>
       </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="7" t="n">
         <v>44966.40833333333</v>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">LAURA ADRIANA - IBM </t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>REPARO DA TELEFONIA ACLDB</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>TELEFONE FIXO AGÊNCIA ACLDB LINHA 43 21010054 NÃO FUNCIONA. LINHAS:(43) 2101 - 0096                                            (43) 2101 - 0097                      (43) 2101 - 0052(43) 2101 - 0053(43) 2101 - 0054     HORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: GUSTAVO LOTT 43 996683519E-MAIL OU TEAMS DO CONTATO LOCAL: GUSTAVO.LOTT@LOCALIZA.COMPROTOCOLO INTERNO: INC1679905</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>ACLDB</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="6" t="inlineStr">
         <is>
           <t>CABEAMENTO</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>REALIZADA A REMOÇÃO E RECOLOCAÇÃO DO CABO DE REDE, APÓS ISSO RAMAL VOLTOU A PEGAR IP E REGISTROU</t>
         </is>
       </c>
-      <c r="S2" s="4" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>FORA DO PRAZO</t>
         </is>
       </c>
-      <c r="T2" s="4" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U2" s="4" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>09:59:57</t>
         </is>
       </c>
-      <c r="V2" s="4" t="inlineStr">
+      <c r="V2" s="6" t="inlineStr">
         <is>
           <t>09:59:57</t>
         </is>
       </c>
-      <c r="W2" s="4" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X2" s="4" t="inlineStr">
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y2" s="5" t="n">
+      <c r="Y2" s="7" t="n">
         <v>4.846527777777778</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>202302000490</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>WEB</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL MUDO</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 15:27</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 15:25</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
+      <c r="G3" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 15:37</t>
         </is>
       </c>
-      <c r="H3" s="4" t="inlineStr">
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>03/02/2023 15:42</t>
         </is>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="7" t="n">
         <v>44962.68263888889</v>
       </c>
-      <c r="J3" s="4" t="inlineStr">
+      <c r="J3" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L3" s="4" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>REPARO DE LINHA  ACREZ</t>
         </is>
       </c>
-      <c r="M3" s="4" t="inlineStr">
+      <c r="M3" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE   BASE TELCO ! COLABORADORA REPORTA LIGAÇÕES MUDA NO RAMAL 2421088790 LINHAS:(24) 2108 - 8789 (24) 2108 - 8790  UNIDADE AFETADA: ACREZHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: STEFANIE  24 9 92312407E-MAIL OU TEAMS DO CONTATO LOCAL: STEFANIE.RIBEIRO@LOCALIZA.COMPROTOCOLO INTERNO: INC1681035</t>
         </is>
       </c>
-      <c r="N3" s="4" t="inlineStr">
+      <c r="N3" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O3" s="4" t="inlineStr">
+      <c r="O3" s="6" t="inlineStr">
         <is>
           <t>ACREZ</t>
         </is>
       </c>
-      <c r="P3" s="4" t="inlineStr">
+      <c r="P3" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="Q3" s="6" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R3" s="4" t="inlineStr">
+      <c r="R3" s="6" t="inlineStr">
         <is>
           <t>VERIFICADO COM CAMILA (ACREZ) QUE A UNIDADE TINHA FICADO SEM CONEXÃO COM A INTERNET, APÓS INTERNET SER RESTABELECIDA SEU RAMAL: 8790 VOLTOU AO NORMAL.</t>
         </is>
       </c>
-      <c r="S3" s="4" t="inlineStr">
+      <c r="S3" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T3" s="4" t="inlineStr">
+      <c r="T3" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="U3" s="6" t="inlineStr">
         <is>
           <t>00:15:32</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V3" s="6" t="inlineStr">
         <is>
           <t>00:15:32</t>
         </is>
       </c>
-      <c r="W3" s="4" t="inlineStr">
+      <c r="W3" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X3" s="4" t="inlineStr">
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y3" s="4" t="inlineStr">
+      <c r="Y3" s="6" t="inlineStr">
         <is>
           <t>00:12:00</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="5" t="n">
         <v>202302000512</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 15:13</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 15:05</t>
         </is>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="7" t="n">
         <v>44965.66388888889</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="7" t="n">
         <v>44965.66527777778</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="7" t="n">
         <v>44967.68055555555</v>
       </c>
-      <c r="J4" s="4" t="inlineStr">
+      <c r="J4" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="K4" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L4" s="4" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>REPARO DE LINHA  ACPPD</t>
         </is>
       </c>
-      <c r="M4" s="4" t="inlineStr">
+      <c r="M4" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE   BASE TELCO ! COLABORADORA REPORTA NÃO ESTAR CONSEGUINDO FAZER NEM RECEBER LIGAÇÃO, AO TENTAR LIGAR FICA MUDO E CAI E AO RECEBER FALA TELEFONE DESLIGADO OU FORA DA ÁREA DE COBERTURA. LINHA 1833110005 LINHAS:(18) 3311 - 0005                                                                (18) 3311 - 0006  UNIDADE AFETADA: ACREZHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: JAQUELINE (18) 3311 – 0006  E-MAIL OU TEAMS DO CONTATO LOCAL: JACQUELINE.PROENCA@LOCALIZA.COMPROTOCOLO INTERNO: INC1683390  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N4" s="4" t="inlineStr">
+      <c r="N4" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O4" s="4" t="inlineStr">
+      <c r="O4" s="6" t="inlineStr">
         <is>
           <t>ACPPD</t>
         </is>
       </c>
-      <c r="P4" s="4" t="inlineStr">
+      <c r="P4" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="Q4" s="6" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R4" s="4" t="inlineStr">
+      <c r="R4" s="6" t="inlineStr">
         <is>
           <t>LIGADOS NOS RAMAIS 551833110005 E 551833110006 ESTÃO REGISTRADOS E FALADO COM LETICIA E VALIDADO QUE OS EQUIPAMENTOS VOLTARAM A FUNCIONAR APÓS A CONFIGURAÇÃO FEITA PELA EQUIPE DE INFRA LOCAL</t>
         </is>
       </c>
-      <c r="S4" s="4" t="inlineStr">
+      <c r="S4" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T4" s="4" t="inlineStr">
+      <c r="T4" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U4" s="4" t="inlineStr">
+      <c r="U4" s="6" t="inlineStr">
         <is>
           <t>08:24:06</t>
         </is>
       </c>
-      <c r="V4" s="4" t="inlineStr">
+      <c r="V4" s="6" t="inlineStr">
         <is>
           <t>08:24:06</t>
         </is>
       </c>
-      <c r="W4" s="4" t="inlineStr">
+      <c r="W4" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X4" s="4" t="inlineStr">
+      <c r="X4" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y4" s="5" t="n">
+      <c r="Y4" s="7" t="n">
         <v>2.035416666666667</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>202302000513</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 15:16</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
         <is>
           <t>06/02/2023 15:11</t>
         </is>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="7" t="n">
         <v>44963.63680555556</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="7" t="n">
         <v>44964.43611111111</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="7" t="n">
         <v>44966.45208333333</v>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K5" s="4" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L5" s="4" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t>REPARO DE LINHA  AAPOA</t>
         </is>
       </c>
-      <c r="M5" s="4" t="inlineStr">
+      <c r="M5" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE   BASE TELCO ! COLABORADORA REPORTA NÃO ESTAR CONSEGUINDO FAZER NEM RECEBER LIGAÇÃO LINHA (051)3313-1140 LINHAS:(51) 3313 – 1140( 51) 3313 - 1141                      (51) 3313 - 1142                   (51) 3313 - 1143                       (51) 3313 - 1144                      (51) 3313 - 1145   UNIDADE AFETADA: AAPOAHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: ANA PAULA  51980599634E-MAIL OU TEAMS DO CONTATO LOCAL: ANA.CONTI@LOCALIZA.COMPROTOCOLO INTERNO: INC1683646  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N5" s="4" t="inlineStr">
+      <c r="N5" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O5" s="4" t="inlineStr">
+      <c r="O5" s="6" t="inlineStr">
         <is>
           <t>AAPOA</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr">
+      <c r="P5" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q5" s="4" t="inlineStr">
+      <c r="Q5" s="6" t="inlineStr">
         <is>
           <t>OUTROS</t>
         </is>
       </c>
-      <c r="R5" s="4" t="inlineStr">
+      <c r="R5" s="6" t="inlineStr">
         <is>
           <t>CHAMADO PODE SER ENCERRADO, ESTA DUPLICADO COM O TICKET 202301000438</t>
         </is>
       </c>
-      <c r="S5" s="4" t="inlineStr">
+      <c r="S5" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T5" s="4" t="inlineStr">
+      <c r="T5" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U5" s="4" t="inlineStr">
+      <c r="U5" s="6" t="inlineStr">
         <is>
           <t>08:20:49</t>
         </is>
       </c>
-      <c r="V5" s="4" t="inlineStr">
+      <c r="V5" s="6" t="inlineStr">
         <is>
           <t>08:20:49</t>
         </is>
       </c>
-      <c r="W5" s="4" t="inlineStr">
+      <c r="W5" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X5" s="4" t="inlineStr">
+      <c r="X5" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y5" s="4" t="inlineStr">
+      <c r="Y5" s="6" t="inlineStr">
         <is>
           <t>00:06:00</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>202302000596</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR E RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 15:32</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>10/02/2023 14:48</t>
         </is>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="7" t="n">
         <v>44971.46527777778</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="7" t="n">
         <v>44971.46666666667</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="7" t="n">
         <v>44973.50972222222</v>
       </c>
-      <c r="J6" s="4" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K6" s="4" t="inlineStr">
+      <c r="K6" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L6" s="4" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>VERIFICAR TELEFONIA DE AABVT</t>
         </is>
       </c>
-      <c r="M6" s="4" t="inlineStr">
+      <c r="M6" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> BOA TARDE , BASE TELCO! RAMAL NÃO ESTA FAZENDO OU RECEBENDO CHAMADAS.  UNIDADE AFETADA: AABVTNÚMERO DO RAMAL AFETADO: 0997HORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: DIOGENES TADIC 95991686149E-MAIL OU TEAMS DO CONTATO LOCAL: DIOGENES.TADIC@LOCALIZA.COMPROTOCOLO INTERNO: INC1688563 </t>
         </is>
       </c>
-      <c r="N6" s="4" t="inlineStr">
+      <c r="N6" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O6" s="4" t="inlineStr">
+      <c r="O6" s="6" t="inlineStr">
         <is>
           <t>AABVT</t>
         </is>
       </c>
-      <c r="P6" s="4" t="inlineStr">
+      <c r="P6" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q6" s="4" t="inlineStr">
+      <c r="Q6" s="6" t="inlineStr">
         <is>
           <t>EQUIPAMENTO TRAVADO</t>
         </is>
       </c>
-      <c r="R6" s="4" t="inlineStr">
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>EM CONTATO COM DIORGINES FOI VERIFICADO QUE O RAMAL ESTAVA TRAVADO, APÓS REINICIAR MANUTALMENTE O RAMAL VOLTOU A REGISTRA</t>
         </is>
       </c>
-      <c r="S6" s="4" t="inlineStr">
+      <c r="S6" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T6" s="4" t="inlineStr">
+      <c r="T6" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U6" s="4" t="inlineStr">
+      <c r="U6" s="6" t="inlineStr">
         <is>
           <t>06:15:25</t>
         </is>
       </c>
-      <c r="V6" s="4" t="inlineStr">
+      <c r="V6" s="6" t="inlineStr">
         <is>
           <t>06:15:25</t>
         </is>
       </c>
-      <c r="W6" s="4" t="inlineStr">
+      <c r="W6" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X6" s="4" t="inlineStr">
+      <c r="X6" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y6" s="5" t="n">
+      <c r="Y6" s="7" t="n">
         <v>3.848611111111111</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="8" t="n">
         <v>202302000669</v>
       </c>
-      <c r="B7" s="6" t="inlineStr">
+      <c r="B7" s="9" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="9" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D7" s="6" t="inlineStr">
+      <c r="D7" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E7" s="6" t="inlineStr">
+      <c r="E7" s="9" t="inlineStr">
         <is>
           <t>16/02/2023 13:50</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="9" t="inlineStr">
         <is>
           <t>16/02/2023 12:37</t>
         </is>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="10" t="n">
         <v>44980.83333333334</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="10" t="n">
         <v>44984.40625</v>
       </c>
-      <c r="I7" s="6" t="inlineStr">
+      <c r="I7" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J7" s="6" t="inlineStr">
+      <c r="J7" s="9" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K7" s="6" t="inlineStr">
+      <c r="K7" s="9" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L7" s="6" t="inlineStr">
+      <c r="L7" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">REPARO LINHA LOCALIZA - ACPOA </t>
         </is>
       </c>
-      <c r="M7" s="6" t="inlineStr">
+      <c r="M7" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">BOA TARDE , BASE TELCO! FAVOR VERIFICAR LINHA (51) 3313 – 1149 QUE NÃO FAZ OU RECEBE CHAMADAS  UNIDADE AFETADA: ACPOAHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: EMELIN KIMBERLEY 51998537467E-MAIL OU TEAMS DO CONTATO LOCAL: EMELIN.OLIZ@LOCALIZA.COMPROTOCOLO INTERNO: INC1694391 </t>
         </is>
       </c>
-      <c r="N7" s="6" t="inlineStr">
+      <c r="N7" s="9" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O7" s="6" t="inlineStr">
+      <c r="O7" s="9" t="inlineStr">
         <is>
           <t>ACPOA</t>
         </is>
       </c>
-      <c r="P7" s="6" t="inlineStr">
+      <c r="P7" s="9" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q7" s="6" t="inlineStr">
+      <c r="Q7" s="9" t="inlineStr">
         <is>
           <t>REDE INTERNA DO CLIENTE</t>
         </is>
       </c>
-      <c r="R7" s="6" t="inlineStr">
+      <c r="R7" s="9" t="inlineStr">
         <is>
           <t>REALIZADA LIBERAÇÃO DO MAC POR PARTE DA LOCALIZA</t>
         </is>
       </c>
-      <c r="S7" s="6" t="inlineStr">
+      <c r="S7" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T7" s="6" t="inlineStr">
+      <c r="T7" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U7" s="6" t="inlineStr">
+      <c r="U7" s="9" t="inlineStr">
         <is>
           <t>05:32:29</t>
         </is>
       </c>
-      <c r="V7" s="6" t="inlineStr">
+      <c r="V7" s="9" t="inlineStr">
         <is>
           <t>05:32:29</t>
         </is>
       </c>
-      <c r="W7" s="6" t="inlineStr">
+      <c r="W7" s="9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X7" s="4" t="inlineStr">
+      <c r="X7" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y7" s="5" t="n">
+      <c r="Y7" s="7" t="n">
         <v>7.307638888888889</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>202302000673</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 15:45</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 15:36</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 17:56</t>
         </is>
       </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>16/02/2023 18:29</t>
         </is>
       </c>
-      <c r="I8" s="5" t="n">
+      <c r="I8" s="7" t="n">
         <v>44975.83402777778</v>
       </c>
-      <c r="J8" s="4" t="inlineStr">
+      <c r="J8" s="6" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K8" s="4" t="inlineStr">
+      <c r="K8" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L8" s="4" t="inlineStr">
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>REPARO LINHA LOCALIZA - ACSST</t>
         </is>
       </c>
-      <c r="M8" s="4" t="inlineStr">
+      <c r="M8" s="6" t="inlineStr">
         <is>
           <t>BOA TARDE , BASE TELCO! FAVOR VERIFICAR AS LINHAS QUE NÃO ESTÃO RECEBENDO OU REALIZANDO CHAMADAS , LOCAL HOUVE QUEDA DE LINK POREM APÓS RESTABELECER TELEFONES NÃO NORMALIZARAM.  (12) 3202 - 7555(12) 3202 - 7556  UNIDADE AFETADA: ACSSTHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: NILIA FREITAS 12991135764E-MAIL OU TEAMS DO CONTATO LOCAL: NILIA.SANTANA@LOCALIZA.COMPROTOCOLO INTERNO: INC1694140</t>
         </is>
       </c>
-      <c r="N8" s="4" t="inlineStr">
+      <c r="N8" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr">
+      <c r="O8" s="6" t="inlineStr">
         <is>
           <t>ACSST</t>
         </is>
       </c>
-      <c r="P8" s="4" t="inlineStr">
+      <c r="P8" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q8" s="4" t="inlineStr">
+      <c r="Q8" s="6" t="inlineStr">
         <is>
           <t>EQUIPAMENTO TRAVADO</t>
         </is>
       </c>
-      <c r="R8" s="4" t="inlineStr">
+      <c r="R8" s="6" t="inlineStr">
         <is>
           <t>, A USUÁRIA (NILIA-LOCALIZA-ACSST) VALIDOU QUE O TELEFONE VOLTOU A FUNCIONAR, APÓS DESLIGAR E LIGAR APARELHO DA TOMADA</t>
         </is>
       </c>
-      <c r="S8" s="4" t="inlineStr">
+      <c r="S8" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T8" s="4" t="inlineStr">
+      <c r="T8" s="6" t="inlineStr">
         <is>
           <t>00:57:00</t>
         </is>
       </c>
-      <c r="U8" s="4" t="inlineStr">
+      <c r="U8" s="6" t="inlineStr">
         <is>
           <t>01:47:20</t>
         </is>
       </c>
-      <c r="V8" s="4" t="inlineStr">
+      <c r="V8" s="6" t="inlineStr">
         <is>
           <t>02:44:20</t>
         </is>
       </c>
-      <c r="W8" s="4" t="inlineStr">
+      <c r="W8" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X8" s="4" t="inlineStr">
+      <c r="X8" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y8" s="4" t="inlineStr">
+      <c r="Y8" s="6" t="inlineStr">
         <is>
           <t>02:20:00</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>202302000695</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL SEM REALIZAR E RECEBER LIGAÇÕES</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>20/02/2023 08:53</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>20/02/2023 08:46</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
+      <c r="G9" s="6" t="inlineStr">
         <is>
           <t>20/02/2023 09:08</t>
         </is>
       </c>
-      <c r="H9" s="4" t="inlineStr">
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>20/02/2023 09:08</t>
         </is>
       </c>
-      <c r="I9" s="5" t="n">
+      <c r="I9" s="7" t="n">
         <v>44979.49236111111</v>
       </c>
-      <c r="J9" s="4" t="inlineStr">
+      <c r="J9" s="6" t="inlineStr">
         <is>
           <t>NOC 01</t>
         </is>
       </c>
-      <c r="K9" s="4" t="inlineStr">
+      <c r="K9" s="6" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L9" s="4" t="inlineStr">
+      <c r="L9" s="6" t="inlineStr">
         <is>
           <t>VERIFICAR  TELEFONIA DE ACPUN</t>
         </is>
       </c>
-      <c r="M9" s="4" t="inlineStr">
+      <c r="M9" s="6" t="inlineStr">
         <is>
           <t>BOM DIA , BASE TELCO! FAVOR REALIZAR REPARO NOS RAMAIS 42 2102 3063 E 42 2102 3064, APRESENTA O ERRO " NESSUS".  UNIDADE AFETADA: ACPUNHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: MELISSA 42-988242292E-MAIL OU TEAMS DO CONTATO LOCAL: MELISSA.REALI@LOCALIZA.COMPROTOCOLO INTERNO: INC1697670</t>
         </is>
       </c>
-      <c r="N9" s="4" t="inlineStr">
+      <c r="N9" s="6" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O9" s="4" t="inlineStr">
+      <c r="O9" s="6" t="inlineStr">
         <is>
           <t>ACPUN</t>
         </is>
       </c>
-      <c r="P9" s="4" t="inlineStr">
+      <c r="P9" s="6" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q9" s="4" t="inlineStr">
+      <c r="Q9" s="6" t="inlineStr">
         <is>
           <t>EQUIPAMENTO TRAVADO</t>
         </is>
       </c>
-      <c r="R9" s="4" t="inlineStr">
+      <c r="R9" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve">EM CONTATO COM MELISSA FUI INFORMADO QUE TINHA FALTADO INTERNET DO LOCAL, APÓS REINICIO DO APARELHO O RAMAL VOLTOU A REGISTRAR </t>
         </is>
       </c>
-      <c r="S9" s="4" t="inlineStr">
+      <c r="S9" s="6" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T9" s="4" t="inlineStr">
+      <c r="T9" s="6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U9" s="4" t="inlineStr">
+      <c r="U9" s="6" t="inlineStr">
         <is>
           <t>00:15:01</t>
         </is>
       </c>
-      <c r="V9" s="4" t="inlineStr">
+      <c r="V9" s="6" t="inlineStr">
         <is>
           <t>00:15:01</t>
         </is>
       </c>
-      <c r="W9" s="4" t="inlineStr">
+      <c r="W9" s="6" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X9" s="4" t="inlineStr">
+      <c r="X9" s="6" t="inlineStr">
         <is>
           <t>MANHÃ</t>
         </is>
       </c>
-      <c r="Y9" s="4" t="inlineStr">
+      <c r="Y9" s="6" t="inlineStr">
         <is>
           <t>00:22:00</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="8" t="n">
         <v>202302000718</v>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="9" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="9" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="9" t="inlineStr">
         <is>
           <t>24/02/2023 13:22</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="9" t="inlineStr">
         <is>
           <t>24/02/2023 12:38</t>
         </is>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="10" t="n">
         <v>44981.68541666667</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="10" t="n">
         <v>44984.41736111111</v>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="J10" s="9" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K10" s="6" t="inlineStr">
+      <c r="K10" s="9" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L10" s="6" t="inlineStr">
+      <c r="L10" s="9" t="inlineStr">
         <is>
           <t>REPARO DE LINHA DE ACVRE</t>
         </is>
       </c>
-      <c r="M10" s="6" t="inlineStr">
+      <c r="M10" s="9" t="inlineStr">
         <is>
           <t>BOA TARDE  BASE TELCO ! GENTILEZA VERIFICAR A LINHA 24-2108 8795  DE ACVRE NÃO ESTÁ FAZENDO EM NEM RECEBENDO CHAMADAS  UNIDADE AFETADA: ACVREHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: JAMILSON 24-2108 8794  E-MAIL OU TEAMS DO CONTATO LOCAL: JAMILSON.GUIMARAES@LOCALIZA.COMPROTOCOLO INTERNO: INC1701285  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N10" s="6" t="inlineStr">
+      <c r="N10" s="9" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O10" s="6" t="inlineStr">
+      <c r="O10" s="9" t="inlineStr">
         <is>
           <t>ACVRE</t>
         </is>
       </c>
-      <c r="P10" s="6" t="inlineStr">
+      <c r="P10" s="9" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q10" s="6" t="inlineStr">
+      <c r="Q10" s="9" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R10" s="6" t="inlineStr">
+      <c r="R10" s="9" t="inlineStr">
         <is>
           <t>RAMAL VOLTOU A REGISTRAR SEM INTERVENÇÃO DA BASE</t>
         </is>
       </c>
-      <c r="S10" s="6" t="inlineStr">
+      <c r="S10" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T10" s="6" t="inlineStr">
+      <c r="T10" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U10" s="6" t="inlineStr">
+      <c r="U10" s="9" t="inlineStr">
         <is>
           <t>06:00:43</t>
         </is>
       </c>
-      <c r="V10" s="6" t="inlineStr">
+      <c r="V10" s="9" t="inlineStr">
         <is>
           <t>06:00:43</t>
         </is>
       </c>
-      <c r="W10" s="6" t="inlineStr">
+      <c r="W10" s="9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X10" s="4" t="inlineStr">
+      <c r="X10" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y10" s="4" t="inlineStr">
+      <c r="Y10" s="6" t="inlineStr">
         <is>
           <t>03:49:00</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="8" t="n">
         <v>202302000720</v>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <t>INCIDENTE</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr">
         <is>
           <t>E-MAIL</t>
         </is>
       </c>
-      <c r="D11" s="6" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">    RAMAL INOPERANTE</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <t>24/02/2023 13:42</t>
         </is>
       </c>
-      <c r="F11" s="6" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr">
         <is>
           <t>24/02/2023 12:44</t>
         </is>
       </c>
-      <c r="G11" s="7" t="n">
+      <c r="G11" s="10" t="n">
         <v>44984.41527777778</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="10" t="n">
         <v>44984.75625</v>
       </c>
-      <c r="I11" s="6" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>EM ABERTO</t>
         </is>
       </c>
-      <c r="J11" s="6" t="inlineStr">
+      <c r="J11" s="9" t="inlineStr">
         <is>
           <t>NOC 02</t>
         </is>
       </c>
-      <c r="K11" s="6" t="inlineStr">
+      <c r="K11" s="9" t="inlineStr">
         <is>
           <t>TOIP</t>
         </is>
       </c>
-      <c r="L11" s="6" t="inlineStr">
+      <c r="L11" s="9" t="inlineStr">
         <is>
           <t>REPARO LINHA LOCALIZA - ACSST</t>
         </is>
       </c>
-      <c r="M11" s="6" t="inlineStr">
+      <c r="M11" s="9" t="inlineStr">
         <is>
           <t>BOA TARDE , BASE TELCO! FAVOR VERIFICAR SOLICITAÇÃO “DESDE DO DIA 23/02/2023 NÃO CONSIGO FAZER E NEM RECEBER LIGAÇÃO, JÁ DESCONECTEI TODOS OS CABOS E NÃO VOLTOU AO NORMAL.”  (12) 3202 - 7555(12) 3202 - 7556  UNIDADE AFETADA: ACSSTHORÁRIO DE ATENDIMENTO DA UNIDADE: 08:00 AS 18:00CONTATO NO LOCAL: SHEILA MIKAELA  12982272380E-MAIL OU TEAMS DO CONTATO LOCAL: SHEILA.MIKAELA@LOCALIZA.COMPROTOCOLO INTERNO: INC1701314  ATENCIOSAMENTE</t>
         </is>
       </c>
-      <c r="N11" s="6" t="inlineStr">
+      <c r="N11" s="9" t="inlineStr">
         <is>
           <t>LOCALIZA</t>
         </is>
       </c>
-      <c r="O11" s="6" t="inlineStr">
+      <c r="O11" s="9" t="inlineStr">
         <is>
           <t>ACSST</t>
         </is>
       </c>
-      <c r="P11" s="6" t="inlineStr">
+      <c r="P11" s="9" t="inlineStr">
         <is>
           <t>N1 TOIP</t>
         </is>
       </c>
-      <c r="Q11" s="6" t="inlineStr">
+      <c r="Q11" s="9" t="inlineStr">
         <is>
           <t>CAUSA NÃO DETECTADA</t>
         </is>
       </c>
-      <c r="R11" s="6" t="inlineStr">
+      <c r="R11" s="9" t="inlineStr">
         <is>
           <t>CONFORME INFORMAÇÃO DA CLIENTE POR E-MAIL, O SERVIÇO FOI NORMALIZADO HOJE SER INTERVENÇÃO TÉCNICA DA BASE</t>
         </is>
       </c>
-      <c r="S11" s="6" t="inlineStr">
+      <c r="S11" s="9" t="inlineStr">
         <is>
           <t>NO PRAZO</t>
         </is>
       </c>
-      <c r="T11" s="6" t="inlineStr">
+      <c r="T11" s="9" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="U11" s="6" t="inlineStr">
+      <c r="U11" s="9" t="inlineStr">
         <is>
           <t>05:40:19</t>
         </is>
       </c>
-      <c r="V11" s="6" t="inlineStr">
+      <c r="V11" s="9" t="inlineStr">
         <is>
           <t>05:40:19</t>
         </is>
       </c>
-      <c r="W11" s="6" t="inlineStr">
+      <c r="W11" s="9" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="X11" s="4" t="inlineStr">
+      <c r="X11" s="6" t="inlineStr">
         <is>
           <t>TARDE</t>
         </is>
       </c>
-      <c r="Y11" s="5" t="n">
+      <c r="Y11" s="7" t="n">
         <v>2.884722222222222</v>
       </c>
     </row>
